--- a/BaseDeDatos/polynomial_forecasts.xlsx
+++ b/BaseDeDatos/polynomial_forecasts.xlsx
@@ -505,19 +505,19 @@
         <v>1151.199355940972</v>
       </c>
       <c r="C3" t="n">
-        <v>-2965.579386099515</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-5174.070556556348</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-138564.5302009928</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-1097946.370135497</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-32384374111.79137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
